--- a/data/borrowed_test_fixtures.xlsx
+++ b/data/borrowed_test_fixtures.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +488,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>50533e57-9e24-4637-926e-de1bf1601ed5</t>
+          <t>deaea0ad-5e8b-4351-9f4a-87e273b332e6</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9018108</v>
+        <v>9034142</v>
       </c>
       <c r="C2" t="n">
-        <v>5012895</v>
+        <v>5033342</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -507,11 +507,11 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Test1</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1234</v>
+        <v>12345</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -520,22 +520,26 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2025-09-20 16:14:56</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr"/>
+          <t>2025-09-24 17:20:25</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>2025-09-24 17:21:49</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>f16f5c22-9629-4cca-991f-2d80f7a2e3de</t>
+          <t>5ec58f36-5b5d-40c7-a572-ba8a529db91e</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9018108</v>
+        <v>9034142</v>
       </c>
       <c r="C3" t="n">
-        <v>5012895</v>
+        <v>5033342</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -543,7 +547,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -551,7 +555,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>23213</v>
+        <v>1234</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -560,96 +564,10 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2025-09-20 16:15:30</t>
+          <t>2025-09-24 17:21:03</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>30f4a02c-7209-45b0-9c1a-47acad84a1bf</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>9018108</v>
-      </c>
-      <c r="C4" t="n">
-        <v>5012895</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>SAFT</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Test3</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>1234</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>812 - 04</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>2025-09-20 16:16:24</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>ae4314fc-7803-4163-b1bd-1de56da63657</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>9034142</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>5033342</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>OTHER</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Test</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1233</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>815 Cupboard</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>2025-09-20 16:54:29</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
